--- a/src/test/java/com/inetBanking/testData/LoginData.xlsx
+++ b/src/test/java/com/inetBanking/testData/LoginData.xlsx
@@ -22,12 +22,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>mngr426948</t>
-  </si>
-  <si>
-    <t>mAhUmab</t>
-  </si>
-  <si>
     <t>mngr123456</t>
   </si>
   <si>
@@ -38,6 +32,12 @@
   </si>
   <si>
     <t>mngr653246</t>
+  </si>
+  <si>
+    <t>mngr431222</t>
+  </si>
+  <si>
+    <t>UhYtEnA</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,34 +424,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
